--- a/Collaterals/Platform_PinListFunctions.xlsx
+++ b/Collaterals/Platform_PinListFunctions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giltal\Documents\Gil\Work\IntelsMakerPlatform\ESP32_NodeMCU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giltal\Dropbox\MakersPlatfrom\Collaterals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034C0E2-A61D-4A05-95C1-8CACBC8FA199}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F79ECD-7D9B-4FF1-8700-31C72B89EB69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{B388C2BF-17F4-4BD3-B9F6-6413036A38F9}"/>
   </bookViews>
@@ -615,6 +615,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,9 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,6 +718,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104868</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1734051</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A30038-83E1-47F7-8D3C-DB5849E4FBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12067148" y="6447216"/>
+          <a:ext cx="8083771" cy="4142695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1024,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439DD58-BA7B-4044-9067-21B1EF25DCD2}">
   <dimension ref="B2:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1783,21 +1827,21 @@
       </c>
     </row>
     <row r="33" spans="5:31" x14ac:dyDescent="0.35">
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="P33" s="32" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="P33" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
       <c r="AB33" s="4">
         <v>36</v>
       </c>
@@ -1829,10 +1873,10 @@
       <c r="P34" s="2">
         <v>0</v>
       </c>
-      <c r="Q34" s="33" t="s">
+      <c r="Q34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="R34" s="34"/>
+      <c r="R34" s="35"/>
       <c r="AB34" s="10">
         <v>39</v>
       </c>
@@ -1848,28 +1892,28 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="31"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="31"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="29">
         <v>8</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
       </c>
-      <c r="Q35" s="35" t="s">
+      <c r="Q35" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="36"/>
+      <c r="R35" s="37"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="AB35" s="25"/>
@@ -1881,28 +1925,28 @@
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M36" s="31"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="29">
         <v>9</v>
       </c>
       <c r="P36" s="2">
         <v>2</v>
       </c>
-      <c r="Q36" s="30" t="s">
+      <c r="Q36" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="R36" s="31"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
@@ -1910,28 +1954,28 @@
       <c r="E37" s="2">
         <v>3</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="31"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="29">
         <v>10</v>
       </c>
       <c r="P37" s="2">
         <v>3</v>
       </c>
-      <c r="Q37" s="30" t="s">
+      <c r="Q37" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R37" s="31"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
@@ -1939,28 +1983,28 @@
       <c r="E38" s="2">
         <v>4</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="31"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="M38" s="31"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="29">
         <v>11</v>
       </c>
       <c r="P38" s="2">
         <v>4</v>
       </c>
-      <c r="Q38" s="30" t="s">
+      <c r="Q38" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="31"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
@@ -1968,28 +2012,28 @@
       <c r="E39" s="2">
         <v>5</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="31"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="M39" s="31"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="29">
         <v>12</v>
       </c>
       <c r="P39" s="2">
         <v>5</v>
       </c>
-      <c r="Q39" s="30" t="s">
+      <c r="Q39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="31"/>
+      <c r="R39" s="32"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
@@ -1997,28 +2041,28 @@
       <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="31"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="M40" s="31"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="29">
         <v>13</v>
       </c>
       <c r="P40" s="2">
         <v>6</v>
       </c>
-      <c r="Q40" s="30" t="s">
+      <c r="Q40" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="R40" s="31"/>
+      <c r="R40" s="32"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
@@ -2026,59 +2070,59 @@
       <c r="E41" s="2">
         <v>7</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="M41" s="31"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="29">
         <v>14</v>
       </c>
       <c r="P41" s="2">
         <v>7</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q41" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="31"/>
+      <c r="R41" s="32"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="45" spans="5:31" x14ac:dyDescent="0.35">
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
     </row>
     <row r="46" spans="5:31" x14ac:dyDescent="0.35">
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="31"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="29">
         <v>8</v>
       </c>
@@ -2087,18 +2131,18 @@
       <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="31"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="M47" s="31"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="29">
         <v>9</v>
       </c>
@@ -2107,18 +2151,18 @@
       <c r="E48" s="2">
         <v>3</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="31"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="31"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="29">
         <v>10</v>
       </c>
@@ -2127,18 +2171,18 @@
       <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="31"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="M49" s="31"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="29">
         <v>11</v>
       </c>
@@ -2147,18 +2191,18 @@
       <c r="E50" s="2">
         <v>5</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="31"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="M50" s="31"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="29">
         <v>12</v>
       </c>
@@ -2167,18 +2211,18 @@
       <c r="E51" s="2">
         <v>6</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="M51" s="31"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="29">
         <v>13</v>
       </c>
@@ -2187,25 +2231,25 @@
       <c r="E52" s="2">
         <v>7</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="31"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="31"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="29">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="21" t="s">
         <v>67</v>
       </c>
@@ -2218,8 +2262,8 @@
       <c r="K53" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H54" s="29">
@@ -2237,26 +2281,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
     <mergeCell ref="P33:R33"/>
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="Q35:R35"/>
@@ -2273,11 +2302,26 @@
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
